--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/DISTRICT_OF_COLUMBIA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/DISTRICT_OF_COLUMBIA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C3">
@@ -475,7 +475,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C8">
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C9">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C40">
@@ -955,7 +955,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C43">
@@ -981,7 +981,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C45">
@@ -1020,7 +1020,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C48">
@@ -1059,7 +1059,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C51">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C58">
@@ -1186,7 +1186,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C60">
@@ -1225,7 +1225,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C63">
@@ -1238,7 +1238,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C64">
@@ -1251,7 +1251,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C65">
@@ -1264,7 +1264,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C66">
@@ -1290,7 +1290,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C68">
@@ -1303,7 +1303,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C69">
@@ -1368,7 +1368,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C74">
@@ -1381,7 +1381,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C75">
@@ -1451,7 +1451,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C80">
@@ -1477,7 +1477,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C82">
@@ -1534,7 +1534,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C86">
@@ -1547,7 +1547,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C87">
@@ -1840,7 +1840,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C108">
@@ -1866,7 +1866,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C110">
@@ -1879,7 +1879,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C111">
@@ -1892,7 +1892,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C112">
@@ -1905,7 +1905,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C113">
@@ -2074,7 +2074,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C126">
@@ -2087,7 +2087,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C127">
@@ -2131,7 +2131,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C130">
@@ -2157,7 +2157,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C132">
@@ -2183,7 +2183,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C134">
@@ -2274,7 +2274,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C141">
@@ -2352,7 +2352,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C147">
@@ -2378,7 +2378,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C149">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C154">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C159">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C167">
@@ -2681,7 +2681,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C170">
@@ -2707,7 +2707,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C172">
@@ -2863,76 +2863,6 @@
       </c>
       <c r="D183">
         <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/DISTRICT_OF_COLUMBIA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/DISTRICT_OF_COLUMBIA_2016.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Amatenango Del Valle</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Apaxco</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Chapa De Mota</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Chapultepec</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1127,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -1140,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -1210,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -1223,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -1236,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1249,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1262,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1275,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1288,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -1301,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1392,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Zitlala</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1519,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1532,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1545,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -1558,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -1571,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1584,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1667,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1680,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1724,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1737,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -1750,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -1763,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1776,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1807,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1838,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -1851,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Concepción Pápalo</t>
@@ -1864,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Eloxochitlán De Flores Magón</t>
@@ -1877,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -1890,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -1903,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1916,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -1929,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -1942,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>San Juan Chicomezúchil</t>
@@ -1955,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -1968,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>San Juan Ozolotepec</t>
@@ -1981,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -1994,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -2007,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -2020,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -2033,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Santiago Tapextla</t>
@@ -2046,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Santiago Yolomécatl</t>
@@ -2059,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Santo Tomás Mazaltepec</t>
@@ -2072,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
@@ -2085,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -2098,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2129,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -2142,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -2155,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Huehuetlán El Grande</t>
@@ -2168,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Ixcaquixtla</t>
@@ -2181,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -2194,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Molcaxac</t>
@@ -2207,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -2220,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2233,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -2246,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -2259,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -2272,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>San Salvador El Seco</t>
@@ -2285,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Soltepec</t>
@@ -2298,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -2311,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -2324,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -2337,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -2350,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -2363,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -2376,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -2389,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Xochitlán Todos Santos</t>
@@ -2402,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2433,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2464,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2495,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Tacotalpa</t>
@@ -2508,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2539,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2570,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -2583,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -2596,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -2609,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Tocatlán</t>
@@ -2622,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2653,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2666,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2679,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Las Vigas De Ramírez</t>
@@ -2692,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Maltrata</t>
@@ -2705,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2718,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -2731,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -2744,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2757,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2770,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2783,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -2796,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -2809,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2840,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Total</t>
